--- a/data/correlation/freight.xlsx
+++ b/data/correlation/freight.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/freight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E7DB3-E96D-A548-BDA6-B3FD00990968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BAFBF-E95D-0B4A-86A2-B3B7DF5AEDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1440" windowWidth="27500" windowHeight="14860" xr2:uid="{E6868074-B924-F54D-8E53-51FBF2B6C40E}"/>
   </bookViews>
   <sheets>
     <sheet name="CCFI and freight" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'CCFI and freight'!$C$158:$C$229</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'CCFI and freight'!$D$158:$D$229</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'CCFI and freight'!$C$158:$C$229</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'CCFI and freight'!$D$158:$D$229</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -613,7 +607,7 @@
                   <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1180</c:v>
@@ -1881,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00492B28-2FA0-0A44-A58D-DCFE33D5BFD8}">
   <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3642,7 +3636,7 @@
         <v>1380</v>
       </c>
       <c r="D174">
-        <v>108</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="175" spans="1:4">

--- a/data/correlation/freight.xlsx
+++ b/data/correlation/freight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BAFBF-E95D-0B4A-86A2-B3B7DF5AEDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7E404-1183-9B42-9EDA-39230BBE93F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1440" windowWidth="27500" windowHeight="14860" xr2:uid="{E6868074-B924-F54D-8E53-51FBF2B6C40E}"/>
   </bookViews>
@@ -1539,16 +1539,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00492B28-2FA0-0A44-A58D-DCFE33D5BFD8}">
   <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0.24472557134884201</v>
+        <v>0.31395561222061186</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>0.24472557134884029</v>
+        <v>0.31395561222061158</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="2">
-        <v>5.9890605272016326E-2</v>
+        <v>9.8568126444819035E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2332,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>4.6460471061616562E-2</v>
+        <v>8.5690528251173584E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2346,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="2">
-        <v>159.6769668884215</v>
+        <v>139.57287224757232</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21" thickBot="1">
@@ -2420,16 +2420,16 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>113700.63717197534</v>
+        <v>149108.93327939999</v>
       </c>
       <c r="H49" s="2">
-        <v>113700.63717197534</v>
+        <v>149108.93327939999</v>
       </c>
       <c r="I49" s="2">
-        <v>4.4594197149302799</v>
+        <v>7.6542321761101615</v>
       </c>
       <c r="J49" s="2">
-        <v>3.8280324971641411E-2</v>
+        <v>7.2389256752180674E-3</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2446,10 +2446,10 @@
         <v>70</v>
       </c>
       <c r="G50" s="2">
-        <v>1784771.362828024</v>
+        <v>1363641.0667206</v>
       </c>
       <c r="H50" s="2">
-        <v>25496.733754686058</v>
+        <v>19480.586667437143</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2468,7 +2468,7 @@
         <v>71</v>
       </c>
       <c r="G51" s="3">
-        <v>1898471.9999999993</v>
+        <v>1512750</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2526,28 +2526,28 @@
         <v>13</v>
       </c>
       <c r="F54" s="2">
-        <v>625.78395681495863</v>
+        <v>616.07360670697199</v>
       </c>
       <c r="G54" s="2">
-        <v>78.015159290072106</v>
+        <v>68.192677210458754</v>
       </c>
       <c r="H54" s="2">
-        <v>8.0213123001928341</v>
+        <v>9.0343073759316255</v>
       </c>
       <c r="I54" s="2">
-        <v>1.6689448267431263E-11</v>
+        <v>2.287564165576339E-13</v>
       </c>
       <c r="J54" s="2">
-        <v>470.18762784609828</v>
+        <v>480.06760052739992</v>
       </c>
       <c r="K54" s="2">
-        <v>781.38028578381898</v>
+        <v>752.07961288654406</v>
       </c>
       <c r="L54" s="2">
-        <v>470.18762784609828</v>
+        <v>480.06760052739992</v>
       </c>
       <c r="M54" s="2">
-        <v>781.38028578381898</v>
+        <v>752.07961288654406</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="21" thickBot="1">
@@ -2561,28 +2561,28 @@
         <v>26</v>
       </c>
       <c r="F55" s="3">
-        <v>0.12816249286710057</v>
+        <v>0.14676798393562698</v>
       </c>
       <c r="G55" s="3">
-        <v>6.069064757120373E-2</v>
+        <v>5.3049404464184408E-2</v>
       </c>
       <c r="H55" s="3">
-        <v>2.1117338172530991</v>
+        <v>2.7666283046535503</v>
       </c>
       <c r="I55" s="3">
-        <v>3.8280324971639947E-2</v>
+        <v>7.2389256752180015E-3</v>
       </c>
       <c r="J55" s="3">
-        <v>7.1188130136660976E-3</v>
+        <v>4.0964282914897607E-2</v>
       </c>
       <c r="K55" s="3">
-        <v>0.24920617272053505</v>
+        <v>0.25257168495635635</v>
       </c>
       <c r="L55" s="3">
-        <v>7.1188130136660976E-3</v>
+        <v>4.0964282914897607E-2</v>
       </c>
       <c r="M55" s="3">
-        <v>0.24920617272053505</v>
+        <v>0.25257168495635635</v>
       </c>
     </row>
     <row r="56" spans="1:13">
